--- a/extras/confu2.xlsx
+++ b/extras/confu2.xlsx
@@ -10,12 +10,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="21">
   <si>
     <t>Opened Mouth</t>
   </si>
@@ -477,7 +476,7 @@
   <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -574,6 +573,9 @@
       <c r="N2" t="s">
         <v>11</v>
       </c>
+      <c r="O2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -616,11 +618,14 @@
         <f t="shared" ref="M3:M12" si="0">SUM(B3:L3)</f>
         <v>37865</v>
       </c>
-      <c r="N3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O3" t="s">
-        <v>19</v>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>70.290000000000006</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -665,13 +670,13 @@
         <v>34451</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="P4">
-        <v>70.290000000000006</v>
+        <v>16</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0.67779999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -716,13 +721,13 @@
         <v>34733</v>
       </c>
       <c r="N5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="P5" s="1">
-        <v>0.67779999999999996</v>
+        <v>15</v>
+      </c>
+      <c r="P5">
+        <v>66.709999999999994</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -767,13 +772,13 @@
         <v>33896</v>
       </c>
       <c r="N6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="P6">
-        <v>66.709999999999994</v>
+        <v>65.39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -818,13 +823,13 @@
         <v>38789</v>
       </c>
       <c r="N7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>65.39</v>
+        <v>60.77</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -869,13 +874,13 @@
         <v>35128</v>
       </c>
       <c r="N8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P8">
-        <v>60.77</v>
+        <v>60.38</v>
       </c>
       <c r="Q8" s="2"/>
     </row>
@@ -921,13 +926,13 @@
         <v>33447</v>
       </c>
       <c r="N9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P9">
-        <v>60.38</v>
+        <v>58.97</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -972,13 +977,13 @@
         <v>33351</v>
       </c>
       <c r="N10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P10">
-        <v>58.97</v>
+        <v>58.47</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -1023,13 +1028,13 @@
         <v>35226</v>
       </c>
       <c r="N11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P11">
-        <v>58.47</v>
+        <v>47.37</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -1074,7 +1079,7 @@
         <v>36890</v>
       </c>
       <c r="N12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>10</v>
@@ -1134,13 +1139,13 @@
         <v>388061</v>
       </c>
       <c r="N13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="P13">
-        <v>47.37</v>
+        <v>34.04</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -1179,23 +1184,18 @@
         <v>10</v>
       </c>
       <c r="M14" s="3"/>
-      <c r="N14">
-        <v>11</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P14">
-        <v>34.04</v>
+      <c r="O14" t="str">
+        <f>CONCATENATE(A14," &amp; ",B14," &amp; ",C14," &amp; ",D14," &amp; ",E14," &amp; ",F14," &amp; ",G14," &amp; ",H14," &amp; ",I14," &amp; ",J14," &amp; ",K14," &amp; ",L14, "\\ \hline")</f>
+        <v xml:space="preserve"> &amp; Opened Mouth &amp; Neutral &amp; Smile &amp; Raised &amp; Surprise &amp; Anger &amp; Disgust &amp; Kissing Face &amp; Sad &amp; Closed smile &amp; Squint\\ \hline</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="1">
-        <f>B2/$M2</f>
-        <v>0.67784745515531575</v>
+      <c r="B15" s="1" t="str">
+        <f>CONCATENATE(LEFT(CONCATENATE(B2/$M2, "%")*100,4),"%")</f>
+        <v>0.67%</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" ref="C15:L15" si="2">C2/$M2</f>
@@ -1239,7 +1239,11 @@
       </c>
       <c r="M15" s="1">
         <f>SUM(B15:L15)</f>
-        <v>1</v>
+        <v>0.32215254484468425</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" ref="O15:O26" si="3">CONCATENATE(A15," &amp; ",B15," &amp; ",C15," &amp; ",D15," &amp; ",E15," &amp; ",F15," &amp; ",G15," &amp; ",H15," &amp; ",I15," &amp; ",J15," &amp; ",K15," &amp; ",L15, "\\ \hline")</f>
+        <v>Open Mouth &amp; 0.67% &amp; 0.00597929123523407 &amp; 0.00163336736182004 &amp; 0.00568761849205192 &amp; 0.25833454863643 &amp; 0.00466676389091439 &amp; 0.00807933498614554 &amp; 0.0224004666763891 &amp; 0.00186670555636576 &amp; 0.0114335715327403 &amp; 0.00207087647659326\\ \hline</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -1247,593 +1251,636 @@
         <v>1</v>
       </c>
       <c r="B16" s="1">
-        <f t="shared" ref="B16:L16" si="3">B3/$M3</f>
+        <f t="shared" ref="B16:L16" si="4">B3/$M3</f>
         <v>1.2122012412518157E-2</v>
       </c>
       <c r="C16" s="1">
+        <f t="shared" si="4"/>
+        <v>0.60773801663805627</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="4"/>
+        <v>1.9014921431401029E-3</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="4"/>
+        <v>8.4061798494652049E-2</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="4"/>
+        <v>2.1867159646111186E-2</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="4"/>
+        <v>2.1391786610326161E-3</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="4"/>
+        <v>4.2757163607553147E-2</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="4"/>
+        <v>4.4896342268585764E-2</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="4"/>
+        <v>4.0908490690611379E-2</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="4"/>
+        <v>8.429948501254457E-2</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="4"/>
+        <v>5.7308860425194771E-2</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" ref="M16:M25" si="5">SUM(B16:L16)</f>
+        <v>1</v>
+      </c>
+      <c r="O16" t="str">
         <f t="shared" si="3"/>
-        <v>0.60773801663805627</v>
-      </c>
-      <c r="D16" s="1">
-        <f t="shared" si="3"/>
-        <v>1.9014921431401029E-3</v>
-      </c>
-      <c r="E16" s="1">
-        <f t="shared" si="3"/>
-        <v>8.4061798494652049E-2</v>
-      </c>
-      <c r="F16" s="1">
-        <f t="shared" si="3"/>
-        <v>2.1867159646111186E-2</v>
-      </c>
-      <c r="G16" s="1">
-        <f t="shared" si="3"/>
-        <v>2.1391786610326161E-3</v>
-      </c>
-      <c r="H16" s="1">
-        <f t="shared" si="3"/>
-        <v>4.2757163607553147E-2</v>
-      </c>
-      <c r="I16" s="1">
-        <f t="shared" si="3"/>
-        <v>4.4896342268585764E-2</v>
-      </c>
-      <c r="J16" s="1">
-        <f t="shared" si="3"/>
-        <v>4.0908490690611379E-2</v>
-      </c>
-      <c r="K16" s="1">
-        <f t="shared" si="3"/>
-        <v>8.429948501254457E-2</v>
-      </c>
-      <c r="L16" s="1">
-        <f t="shared" si="3"/>
-        <v>5.7308860425194771E-2</v>
-      </c>
-      <c r="M16" s="1">
-        <f t="shared" ref="M16:M25" si="4">SUM(B16:L16)</f>
-        <v>1</v>
-      </c>
-      <c r="O16" s="2"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+        <v>Neutral &amp; 0.0121220124125182 &amp; 0.607738016638056 &amp; 0.0019014921431401 &amp; 0.084061798494652 &amp; 0.0218671596461112 &amp; 0.00213917866103262 &amp; 0.0427571636075531 &amp; 0.0448963422685858 &amp; 0.0409084906906114 &amp; 0.0842994850125446 &amp; 0.0573088604251948\\ \hline</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="1">
-        <f t="shared" ref="B17:L17" si="5">B4/$M4</f>
+        <f t="shared" ref="B17:L17" si="6">B4/$M4</f>
         <v>4.4410902441148299E-3</v>
       </c>
       <c r="C17" s="1">
+        <f t="shared" si="6"/>
+        <v>2.0318713535165886E-3</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="6"/>
+        <v>0.70291138138225306</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="6"/>
+        <v>5.7792226640736119E-2</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="6"/>
+        <v>9.0040927694406553E-2</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="6"/>
+        <v>2.5021044381875707E-2</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="6"/>
+        <v>1.8344895648892631E-2</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="6"/>
+        <v>6.8096717076427393E-2</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="6"/>
+        <v>6.2697744622797593E-3</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="6"/>
+        <v>2.5050071115497372E-2</v>
+      </c>
+      <c r="M17" s="1">
         <f t="shared" si="5"/>
-        <v>2.0318713535165886E-3</v>
-      </c>
-      <c r="D17" s="1">
-        <f t="shared" si="5"/>
-        <v>0.70291138138225306</v>
-      </c>
-      <c r="E17" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
-        <f t="shared" si="5"/>
-        <v>5.7792226640736119E-2</v>
-      </c>
-      <c r="G17" s="1">
-        <f t="shared" si="5"/>
-        <v>9.0040927694406553E-2</v>
-      </c>
-      <c r="H17" s="1">
-        <f t="shared" si="5"/>
-        <v>2.5021044381875707E-2</v>
-      </c>
-      <c r="I17" s="1">
-        <f t="shared" si="5"/>
-        <v>1.8344895648892631E-2</v>
-      </c>
-      <c r="J17" s="1">
-        <f t="shared" si="5"/>
-        <v>6.8096717076427393E-2</v>
-      </c>
-      <c r="K17" s="1">
-        <f t="shared" si="5"/>
-        <v>6.2697744622797593E-3</v>
-      </c>
-      <c r="L17" s="1">
-        <f t="shared" si="5"/>
-        <v>2.5050071115497372E-2</v>
-      </c>
-      <c r="M17" s="1">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17" t="str">
+        <f t="shared" si="3"/>
+        <v>Smile &amp; 0.00444109024411483 &amp; 0.00203187135351659 &amp; 0.702911381382253 &amp; 0 &amp; 0.0577922266407361 &amp; 0.0900409276944066 &amp; 0.0250210443818757 &amp; 0.0183448956488926 &amp; 0.0680967170764274 &amp; 0.00626977446227976 &amp; 0.0250500711154974\\ \hline</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="1">
-        <f t="shared" ref="B18:L18" si="6">B5/$M5</f>
+        <f t="shared" ref="B18:L18" si="7">B5/$M5</f>
         <v>9.0979759882532461E-3</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.10148849797023005</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.7639420723807331E-3</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.66714651772089939</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.7121181585235944E-2</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.6122995422220942E-3</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9942705784124609E-2</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.6583652434284397E-2</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.11041372757895949</v>
       </c>
       <c r="L18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.3829499323410013E-2</v>
       </c>
       <c r="M18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18" t="str">
+        <f t="shared" si="3"/>
+        <v>Raised eyebrow &amp; 0.00909797598825325 &amp; 0.10148849797023 &amp; 0.00276394207238073 &amp; 0.667146517720899 &amp; 0.0271211815852359 &amp; 0 &amp; 0.00161229954222209 &amp; 0.0299427057841246 &amp; 0.0165836524342844 &amp; 0.110413727578959 &amp; 0.03382949932341\\ \hline</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="1">
-        <f t="shared" ref="B19:L19" si="7">B6/$M6</f>
+        <f t="shared" ref="B19:L19" si="8">B6/$M6</f>
         <v>0.18695421288647629</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.664149162143026E-2</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.3365588860042481E-2</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.7081661552985603E-2</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.65385296200141607</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.2036818503658248E-2</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.7996223743214537E-2</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.6908189756903466E-2</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.8678310125088503E-3</v>
       </c>
       <c r="L19" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.9502006136417275E-4</v>
       </c>
       <c r="M19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O19" t="str">
+        <f t="shared" si="3"/>
+        <v>Surpriise &amp; 0.186954212886476 &amp; 0.0366414916214303 &amp; 0.0233655888600425 &amp; 0.0170816615529856 &amp; 0.653852962001416 &amp; 0.0120368185036582 &amp; 0.0179962237432145 &amp; 0.0469081897569035 &amp; 0 &amp; 0.00486783101250885 &amp; 0.000295020061364173\\ \hline</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="1">
-        <f t="shared" ref="B20:L20" si="8">B7/$M7</f>
+        <f t="shared" ref="B20:L20" si="9">B7/$M7</f>
         <v>3.289592410219392E-2</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.0885044729175797E-2</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.1024259455000129</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.0312201912913454E-3</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.856196344324422E-2</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.58967748588517366</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.196782593003171E-2</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.5548480239243086E-2</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.4207893990564337E-2</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.8412952125602619E-2</v>
       </c>
       <c r="L20" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.10438526386346644</v>
       </c>
       <c r="M20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O20" t="str">
+        <f t="shared" si="3"/>
+        <v>Anger &amp; 0.0328959241021939 &amp; 0.0308850447291758 &amp; 0.102425945500013 &amp; 0.00103122019129135 &amp; 0.0185619634432442 &amp; 0.589677485885174 &amp; 0.0319678259300317 &amp; 0.0255484802392431 &amp; 0.0242078939905643 &amp; 0.0384129521256026 &amp; 0.104385263863466\\ \hline</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="1">
-        <f t="shared" ref="B21:L21" si="9">B8/$M8</f>
+        <f t="shared" ref="B21:L21" si="10">B8/$M8</f>
         <v>3.6238897745388292E-2</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.10305169665224323</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.3523115463447956E-2</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.7670234570712823E-2</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.3912548394443181E-3</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.5572762468685948E-2</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.31251423365975861</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.9150535185606924E-2</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.5552265998633572E-2</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9.6817353677977683E-2</v>
       </c>
       <c r="L21" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.14751764973810066</v>
       </c>
       <c r="M21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O21" t="str">
+        <f t="shared" si="3"/>
+        <v>Disgust &amp; 0.0362388977453883 &amp; 0.103051696652243 &amp; 0.083523115463448 &amp; 0.0276702345707128 &amp; 0.00239125483944432 &amp; 0.0855727624686859 &amp; 0.312514233659759 &amp; 0.0291505351856069 &amp; 0.0755522659986336 &amp; 0.0968173536779777 &amp; 0.147517649738101\\ \hline</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B22" s="1">
-        <f t="shared" ref="B22:L22" si="10">B9/$M9</f>
+        <f t="shared" ref="B22:L22" si="11">B9/$M9</f>
         <v>2.4725685412742549E-2</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.10551021018327503</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.3589559601758004E-2</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.379884593536042E-2</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.5596316560528597E-2</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.7430561784315485E-2</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.3740843722904897E-2</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.60376117439531196</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.8062008550841628E-2</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.2857954375579278E-2</v>
       </c>
       <c r="L22" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9.2683947738212693E-4</v>
       </c>
       <c r="M22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O22" t="str">
+        <f t="shared" si="3"/>
+        <v>Kissing Face &amp; 0.0247256854127425 &amp; 0.105510210183275 &amp; 0.023589559601758 &amp; 0.0237988459353604 &amp; 0.0655963165605286 &amp; 0.0174305617843155 &amp; 0.0437408437229049 &amp; 0.603761174395312 &amp; 0.0580620085508416 &amp; 0.0328579543755793 &amp; 0.000926839477382127\\ \hline</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B23" s="1">
-        <f t="shared" ref="B23:L23" si="11">B10/$M10</f>
+        <f t="shared" ref="B23:L23" si="12">B10/$M10</f>
         <v>8.3655662498875599E-3</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5.2831999040508532E-2</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.6491259632394832E-2</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6.4375880783184916E-2</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.7958681898593742E-4</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.7748793139635994E-2</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.1094120116338341E-2</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.58472009834787564</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.11504902401727085</v>
       </c>
       <c r="L23" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6.8543671853917423E-2</v>
       </c>
       <c r="M23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O23" t="str">
+        <f t="shared" si="3"/>
+        <v>sad &amp; 0.00836556624988756 &amp; 0.0528319990405085 &amp; 0.0164912596323948 &amp; 0.0643758807831849 &amp; 0 &amp; 0.000779586818985937 &amp; 0.077748793139636 &amp; 0.0110941201163383 &amp; 0.584720098347876 &amp; 0.115049024017271 &amp; 0.0685436718539174\\ \hline</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B24" s="1">
-        <f t="shared" ref="B24:L24" si="12">B11/$M11</f>
+        <f t="shared" ref="B24:L24" si="13">B11/$M11</f>
         <v>1.5074092999489013E-2</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.17521149151195139</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.0907284392210301E-2</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.13416226650769317</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.3717708510759099E-3</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5.9529892692897289E-2</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.801794129336286E-2</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.0929427127689774E-2</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.13243059104070856</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.34043036393572929</v>
       </c>
       <c r="L24" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.8934877647192414E-2</v>
       </c>
       <c r="M24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.99999999999999989</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O24" t="str">
+        <f t="shared" si="3"/>
+        <v>closed smile &amp; 0.015074092999489 &amp; 0.175211491511951 &amp; 0.0409072843922103 &amp; 0.134162266507693 &amp; 0.00437177085107591 &amp; 0.0595298926928973 &amp; 0.0680179412933629 &amp; 0.0109294271276898 &amp; 0.132430591040709 &amp; 0.340430363935729 &amp; 0.0189348776471924\\ \hline</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B25" s="1">
-        <f t="shared" ref="B25:L25" si="13">B12/$M12</f>
+        <f t="shared" ref="B25:L25" si="14">B12/$M12</f>
         <v>6.5600433721875843E-3</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.1690973163458932</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.7218758471130389E-2</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6.2157766332339388E-2</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.6589861751152075E-2</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6.0775277853076716E-2</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5.6438059094605586E-2</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.2436974789915968E-3</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.5161290322580643E-2</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6.3025210084033612E-2</v>
       </c>
       <c r="L25" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.4737327188940092</v>
       </c>
       <c r="M25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O25" t="str">
+        <f t="shared" si="3"/>
+        <v>Squint &amp; 0.00656004337218758 &amp; 0.169097316345893 &amp; 0.0372187584711304 &amp; 0.0621577663323394 &amp; 0.0165898617511521 &amp; 0.0607752778530767 &amp; 0.0564380590946056 &amp; 0.0092436974789916 &amp; 0.0451612903225806 &amp; 0.0630252100840336 &amp; 0.473732718894009\\ \hline</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="1">
         <f>SUM(B15:B25)</f>
-        <v>1.0143229565685672</v>
+        <v>0.33647550141325144</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" ref="C26:L26" si="14">SUM(C15:C25)</f>
+        <f t="shared" ref="C26:L26" si="15">SUM(C15:C25)</f>
         <v>1.3904669272815142</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0367316948805907</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.087173810581171</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.1264792459553745</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.92264925625314675</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.68589376310131067</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.85222003467807717</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0475897140088934</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.90387724781522616</v>
       </c>
       <c r="L26" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.93259534887612783</v>
       </c>
       <c r="M26" s="1">
         <f>(B2/M2+C3/M3+D4/M4+E5/M5+F6/M6+G7/M7+H8/M8+I9/M9+J10/M10+K11/M11+L12/M12)/11</f>
         <v>0.56493930981961804</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O26" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> &amp; 0.336475501413251 &amp; 1.39046692728151 &amp; 1.03673169488059 &amp; 1.08717381058117 &amp; 1.12647924595537 &amp; 0.922649256253147 &amp; 0.685893763101311 &amp; 0.852220034678077 &amp; 1.04758971400889 &amp; 0.903877247815226 &amp; 0.932595348876128\\ \hline</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="3" t="s">
         <v>0</v>
@@ -1870,7 +1917,7 @@
       </c>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>16</v>
       </c>
@@ -1915,7 +1962,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>1</v>
       </c>
@@ -1953,7 +2000,7 @@
         <v>57</v>
       </c>
       <c r="M32">
-        <f t="shared" ref="M32:M41" si="15">SUM(B32:L32)</f>
+        <f t="shared" ref="M32:M41" si="16">SUM(B32:L32)</f>
         <v>1566</v>
       </c>
       <c r="N32" t="s">
@@ -1998,7 +2045,7 @@
         <v>3</v>
       </c>
       <c r="M33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1353</v>
       </c>
       <c r="N33" t="s">
@@ -2043,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1383</v>
       </c>
       <c r="N34" t="s">
@@ -2088,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1356</v>
       </c>
       <c r="N35" t="s">
@@ -2133,7 +2180,7 @@
         <v>24</v>
       </c>
       <c r="M36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1338</v>
       </c>
       <c r="N36" t="s">
@@ -2178,7 +2225,7 @@
         <v>33</v>
       </c>
       <c r="M37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1293</v>
       </c>
       <c r="N37" t="s">
@@ -2223,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1320</v>
       </c>
       <c r="N38" t="s">
@@ -2268,7 +2315,7 @@
         <v>18</v>
       </c>
       <c r="M39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1365</v>
       </c>
       <c r="N39" t="s">
@@ -2313,7 +2360,7 @@
         <v>6</v>
       </c>
       <c r="M40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1356</v>
       </c>
       <c r="N40" t="s">
@@ -2358,7 +2405,7 @@
         <v>1266</v>
       </c>
       <c r="M41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1431</v>
       </c>
       <c r="N41" t="s">
@@ -2372,43 +2419,43 @@
         <v>1425</v>
       </c>
       <c r="C42">
-        <f t="shared" ref="C42" si="16">SUM(C31:C41)</f>
+        <f t="shared" ref="C42" si="17">SUM(C31:C41)</f>
         <v>1515</v>
       </c>
       <c r="D42">
-        <f t="shared" ref="D42" si="17">SUM(D31:D41)</f>
+        <f t="shared" ref="D42" si="18">SUM(D31:D41)</f>
         <v>1413</v>
       </c>
       <c r="E42">
-        <f t="shared" ref="E42" si="18">SUM(E31:E41)</f>
+        <f t="shared" ref="E42" si="19">SUM(E31:E41)</f>
         <v>1395</v>
       </c>
       <c r="F42">
-        <f t="shared" ref="F42" si="19">SUM(F31:F41)</f>
+        <f t="shared" ref="F42" si="20">SUM(F31:F41)</f>
         <v>1299</v>
       </c>
       <c r="G42">
-        <f t="shared" ref="G42" si="20">SUM(G31:G41)</f>
+        <f t="shared" ref="G42" si="21">SUM(G31:G41)</f>
         <v>1314</v>
       </c>
       <c r="H42">
-        <f t="shared" ref="H42" si="21">SUM(H31:H41)</f>
+        <f t="shared" ref="H42" si="22">SUM(H31:H41)</f>
         <v>1269</v>
       </c>
       <c r="I42">
-        <f t="shared" ref="I42" si="22">SUM(I31:I41)</f>
+        <f t="shared" ref="I42" si="23">SUM(I31:I41)</f>
         <v>1347</v>
       </c>
       <c r="J42">
-        <f t="shared" ref="J42" si="23">SUM(J31:J41)</f>
+        <f t="shared" ref="J42" si="24">SUM(J31:J41)</f>
         <v>1677</v>
       </c>
       <c r="K42">
-        <f t="shared" ref="K42" si="24">SUM(K31:K41)</f>
+        <f t="shared" ref="K42" si="25">SUM(K31:K41)</f>
         <v>1266</v>
       </c>
       <c r="L42">
-        <f t="shared" ref="L42" si="25">SUM(L31:L41)</f>
+        <f t="shared" ref="L42" si="26">SUM(L31:L41)</f>
         <v>1485</v>
       </c>
       <c r="M42">
@@ -2545,7 +2592,7 @@
         <v>3.63984674329502E-2</v>
       </c>
       <c r="M45" s="1">
-        <f t="shared" ref="M45:M54" si="26">SUM(B45:L45)</f>
+        <f t="shared" ref="M45:M54" si="27">SUM(B45:L45)</f>
         <v>0.99999999999999967</v>
       </c>
       <c r="N45" s="4">
@@ -2596,7 +2643,7 @@
         <v>2.2172949002217299E-3</v>
       </c>
       <c r="M46" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="N46" s="4">
@@ -2647,7 +2694,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.99999999999999978</v>
       </c>
       <c r="N47" s="4">
@@ -2698,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="M48" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="N48" s="4">
@@ -2749,7 +2796,7 @@
         <v>1.79372197309417E-2</v>
       </c>
       <c r="M49" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.99999999999999956</v>
       </c>
       <c r="N49" s="4">
@@ -2800,7 +2847,7 @@
         <v>2.5522041763341101E-2</v>
       </c>
       <c r="M50" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="N50" s="4">
@@ -2851,7 +2898,7 @@
         <v>0</v>
       </c>
       <c r="M51" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="N51" s="4">
@@ -2902,7 +2949,7 @@
         <v>1.3186813186813201E-2</v>
       </c>
       <c r="M52" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="N52" s="4">
@@ -2953,7 +3000,7 @@
         <v>4.4247787610619503E-3</v>
       </c>
       <c r="M53" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.99999999999999978</v>
       </c>
       <c r="N53" s="4">
@@ -3004,7 +3051,7 @@
         <v>0.88469601677148901</v>
       </c>
       <c r="M54" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.0000000000000007</v>
       </c>
       <c r="N54" s="4">
@@ -3023,43 +3070,43 @@
         <v>0.8774345440375434</v>
       </c>
       <c r="C55" s="1">
-        <f t="shared" ref="C55" si="27">SUM(C44:C54)</f>
+        <f t="shared" ref="C55" si="28">SUM(C44:C54)</f>
         <v>0.99280660380702146</v>
       </c>
       <c r="D55" s="1">
-        <f t="shared" ref="D55" si="28">SUM(D44:D54)</f>
+        <f t="shared" ref="D55" si="29">SUM(D44:D54)</f>
         <v>1.0436643417042784</v>
       </c>
       <c r="E55" s="1">
-        <f t="shared" ref="E55" si="29">SUM(E44:E54)</f>
+        <f t="shared" ref="E55" si="30">SUM(E44:E54)</f>
         <v>1.0062636837138477</v>
       </c>
       <c r="F55" s="1">
-        <f t="shared" ref="F55" si="30">SUM(F44:F54)</f>
+        <f t="shared" ref="F55" si="31">SUM(F44:F54)</f>
         <v>0.95495412784968237</v>
       </c>
       <c r="G55" s="1">
-        <f t="shared" ref="G55" si="31">SUM(G44:G54)</f>
+        <f t="shared" ref="G55" si="32">SUM(G44:G54)</f>
         <v>0.9800925432756572</v>
       </c>
       <c r="H55" s="1">
-        <f t="shared" ref="H55" si="32">SUM(H44:H54)</f>
+        <f t="shared" ref="H55" si="33">SUM(H44:H54)</f>
         <v>0.9772927066196142</v>
       </c>
       <c r="I55" s="1">
-        <f t="shared" ref="I55" si="33">SUM(I44:I54)</f>
+        <f t="shared" ref="I55" si="34">SUM(I44:I54)</f>
         <v>1.0137884180351655</v>
       </c>
       <c r="J55" s="1">
-        <f t="shared" ref="J55" si="34">SUM(J44:J54)</f>
+        <f t="shared" ref="J55" si="35">SUM(J44:J54)</f>
         <v>1.2058667963586156</v>
       </c>
       <c r="K55" s="1">
-        <f t="shared" ref="K55" si="35">SUM(K44:K54)</f>
+        <f t="shared" ref="K55" si="36">SUM(K44:K54)</f>
         <v>0.91600834657730235</v>
       </c>
       <c r="L55" s="1">
-        <f t="shared" ref="L55" si="36">SUM(L44:L54)</f>
+        <f t="shared" ref="L55" si="37">SUM(L44:L54)</f>
         <v>1.0318278880212715</v>
       </c>
       <c r="M55" s="1">
